--- a/biology/Microbiologie/Nitrospinota/Nitrospinota.xlsx
+++ b/biology/Microbiologie/Nitrospinota/Nitrospinota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nitrospinota forment un phylum de bactéries marines oxydant le nitrite.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Nitrospinota a d'abord été décrit en 2013 sous le nom de Nitrospinae par Lücker et al. mais cette publication n'a pas été publiée de manière valide[2]. En 2020, c'est au tour de Park et al. de proposer le nouveau nom Nitrospinota pour ce même groupe comme phylum[3] mais là aussi la publication n'a pas été effectuée selon les critères de validité de l'ICSP avec entre autres une absence d'explication de la formation du nom et de l'autorité du nom[2]. Ce n'est qu'en 2021, que ce nouveau nom est validé en même temps que la publication de 41 autres phylum bactériens par Oren et Garrity tout en maintenant l'autorité de nomenclature à Lücker mais assorti de la date de 2021[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Nitrospinota a d'abord été décrit en 2013 sous le nom de Nitrospinae par Lücker et al. mais cette publication n'a pas été publiée de manière valide. En 2020, c'est au tour de Park et al. de proposer le nouveau nom Nitrospinota pour ce même groupe comme phylum mais là aussi la publication n'a pas été effectuée selon les critères de validité de l'ICSP avec entre autres une absence d'explication de la formation du nom et de l'autorité du nom. Ce n'est qu'en 2021, que ce nouveau nom est validé en même temps que la publication de 41 autres phylum bactériens par Oren et Garrity tout en maintenant l'autorité de nomenclature à Lücker mais assorti de la date de 2021,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du phylum Nitrospinota est la suivante : Ni.tro.spi.no’ta N.L. fem. n. Nitrospina, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Nitrospinota, le phylum des Nitrospina[1],[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du phylum Nitrospinota est la suivante : Ni.tro.spi.no’ta N.L. fem. n. Nitrospina, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Nitrospinota, le phylum des Nitrospina,.
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actuellement, selon la LPSN  (20 novembre 2022)[4], les Nitrospinota ne comptent qu'une seule classe, les Nitrospinia dont le nom n'a pas été publié de manière valide ainsi qu'un genre publié lui aussi de manière non valide, Candidatus Nitromaritima et susceptible de représenter un autre classe[2],[5],[6]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actuellement, selon la LPSN  (20 novembre 2022), les Nitrospinota ne comptent qu'une seule classe, les Nitrospinia dont le nom n'a pas été publié de manière valide ainsi qu'un genre publié lui aussi de manière non valide, Candidatus Nitromaritima et susceptible de représenter un autre classe. 
 </t>
         </is>
       </c>
